--- a/data/data_financials/ADBE_Income.xlsx
+++ b/data/data_financials/ADBE_Income.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -83,7 +83,6 @@
     <col min="8" max="8" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="10" max="10" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="15.400000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -119,9 +118,6 @@
       <c r="J1" s="2">
         <v>39780.0</v>
       </c>
-      <c r="K1" s="2">
-        <v>39416.0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -156,9 +152,6 @@
       <c r="J2" s="0" t="n">
         <v>3579889000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>3157881000.0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -193,9 +186,6 @@
       <c r="J3" s="0" t="n">
         <v>0.1336</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>0.2262</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -230,9 +220,6 @@
       <c r="J4" s="0" t="n">
         <v>362630000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
-        <v>354694000.0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -267,9 +254,6 @@
       <c r="J5" s="0" t="n">
         <v>3217259000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>2803187000.0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -304,9 +288,6 @@
       <c r="J6" s="0" t="n">
         <v>662057000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>613242000.0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -341,9 +322,6 @@
       <c r="J7" s="0" t="n">
         <v>1426632000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>1259370000.0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -378,9 +356,6 @@
       <c r="J8" s="0" t="n">
         <v>2188988000.0</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>1945602000.0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -415,9 +390,6 @@
       <c r="J9" s="0" t="n">
         <v>1028271000.0</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>857585000.0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -452,9 +424,6 @@
       <c r="J10" s="0" t="n">
         <v>10019000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>253000.0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -489,9 +458,6 @@
       <c r="J11" s="0" t="n">
         <v>1078508000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>947190000.0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -526,9 +492,6 @@
       <c r="J12" s="0" t="n">
         <v>206694000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>223383000.0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -563,9 +526,6 @@
       <c r="J13" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -600,9 +560,6 @@
       <c r="J14" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="K14" s="0" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -637,9 +594,6 @@
       <c r="J15" s="0" t="n">
         <v>871814000.0</v>
       </c>
-      <c r="K15" s="0" t="n">
-        <v>723807000.0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -674,9 +628,6 @@
       <c r="J16" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="K16" s="0" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -711,9 +662,6 @@
       <c r="J17" s="0" t="n">
         <v>871814000.0</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <v>723807000.0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -748,9 +696,6 @@
       <c r="J18" s="0" t="n">
         <v>1.62</v>
       </c>
-      <c r="K18" s="0" t="n">
-        <v>1.24</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -785,9 +730,6 @@
       <c r="J19" s="0" t="n">
         <v>1.59</v>
       </c>
-      <c r="K19" s="0" t="n">
-        <v>1.21</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -822,9 +764,6 @@
       <c r="J20" s="0" t="n">
         <v>539373000.0</v>
       </c>
-      <c r="K20" s="0" t="n">
-        <v>584203000.0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -859,9 +798,6 @@
       <c r="J21" s="0" t="n">
         <v>548553000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
-        <v>598775000.0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -896,9 +832,6 @@
       <c r="J22" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="K22" s="0" t="n">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -933,9 +866,6 @@
       <c r="J23" s="0" t="n">
         <v>0.8987</v>
       </c>
-      <c r="K23" s="0" t="n">
-        <v>0.8877</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -970,9 +900,6 @@
       <c r="J24" s="0" t="n">
         <v>0.38</v>
       </c>
-      <c r="K24" s="0" t="n">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -1007,9 +934,6 @@
       <c r="J25" s="0" t="n">
         <v>0.3041</v>
       </c>
-      <c r="K25" s="0" t="n">
-        <v>0.3</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -1044,9 +968,6 @@
       <c r="J26" s="0" t="n">
         <v>0.244</v>
       </c>
-      <c r="K26" s="0" t="n">
-        <v>0.229</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -1081,9 +1002,6 @@
       <c r="J27" s="0" t="n">
         <v>0.3265</v>
       </c>
-      <c r="K27" s="0" t="n">
-        <v>0.4145</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -1118,9 +1036,6 @@
       <c r="J28" s="0" t="n">
         <v>1358796000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
-        <v>1262907000.0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -1155,9 +1070,6 @@
       <c r="J29" s="0" t="n">
         <v>1088527000.0</v>
       </c>
-      <c r="K29" s="0" t="n">
-        <v>947443000.0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -1191,9 +1103,6 @@
       </c>
       <c r="J30" s="0" t="n">
         <v>871814000.0</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>723807000.0</v>
       </c>
     </row>
   </sheetData>
